--- a/data/COVID-19 data sheet edited Jan 23.xlsx
+++ b/data/COVID-19 data sheet edited Jan 23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alechay/r_projects/GitHub/covid19-mh/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38336D82-DEEC-A547-9BE2-DE245BFFDF99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF69067-5899-2C48-A9DF-B20A86353342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1880" windowWidth="32740" windowHeight="16900" tabRatio="603" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1000" yWindow="2480" windowWidth="32740" windowHeight="16900" tabRatio="603" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grand River Hospital" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="80">
   <si>
     <t>Substance related</t>
   </si>
@@ -458,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -573,24 +573,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -671,9 +658,6 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -718,9 +702,6 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -753,6 +734,9 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -971,8 +955,8 @@
   <dimension ref="A1:BD1001"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:AO31"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -987,169 +971,169 @@
   <sheetData>
     <row r="1" spans="1:41" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="51"/>
-      <c r="AA1" s="51"/>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="51"/>
-      <c r="AE1" s="51"/>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="51"/>
-      <c r="AI1" s="51"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="51"/>
-      <c r="AM1" s="51"/>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
     </row>
     <row r="2" spans="1:41" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="38" t="s">
+      <c r="B2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="S2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="U2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="V2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="W2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="X2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL2" s="32" t="s">
+      <c r="J2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="32" t="s">
+      <c r="AM2" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="32" t="s">
+      <c r="AN2" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="32" t="s">
+      <c r="AO2" s="31" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1160,7 +1144,9 @@
       <c r="B3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="30"/>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="14" t="s">
         <v>59</v>
       </c>
@@ -15131,8 +15117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A8D6911-6DA4-7148-9EF0-2DAD09856704}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -15230,7 +15216,7 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="29" t="s">
@@ -15321,11 +15307,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="30"/>
+    <row r="3" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" s="4">
         <v>2020</v>
       </c>
@@ -15412,7 +15400,7 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="37" t="s">
         <v>64</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -15504,7 +15492,7 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="81" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -15596,7 +15584,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -15688,7 +15676,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -15780,7 +15768,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="16" t="s">
@@ -15872,7 +15860,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="36" t="s">
         <v>60</v>
       </c>
       <c r="B9" s="16" t="s">
@@ -15964,7 +15952,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -16083,7 +16071,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -16193,11 +16181,11 @@
       </c>
     </row>
     <row r="12" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C12" s="3">
         <v>2019</v>
@@ -16285,11 +16273,11 @@
       </c>
     </row>
     <row r="13" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4">
         <v>2020</v>
@@ -16377,7 +16365,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="19" t="s">
@@ -16469,7 +16457,7 @@
       </c>
     </row>
     <row r="15" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
@@ -16561,7 +16549,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -16653,7 +16641,7 @@
       </c>
     </row>
     <row r="17" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
+      <c r="A17" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -16745,7 +16733,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -16837,7 +16825,7 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="19" t="s">
@@ -16929,7 +16917,7 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="19" t="s">
@@ -17021,7 +17009,7 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
+      <c r="A21" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="19" t="s">
@@ -17113,7 +17101,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="19" t="s">
@@ -17205,7 +17193,7 @@
       </c>
     </row>
     <row r="23" spans="1:30" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -17297,7 +17285,7 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="A24" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="19" t="s">
@@ -17389,7 +17377,7 @@
       </c>
     </row>
     <row r="25" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="19" t="s">
@@ -17481,7 +17469,7 @@
       </c>
     </row>
     <row r="26" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="19" t="s">
@@ -17573,7 +17561,7 @@
       </c>
     </row>
     <row r="27" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="19" t="s">
@@ -17647,7 +17635,7 @@
       <c r="AD27" s="4"/>
     </row>
     <row r="28" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -17739,7 +17727,7 @@
       </c>
     </row>
     <row r="29" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B29" s="19" t="s">
@@ -17831,7 +17819,7 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -17923,7 +17911,7 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -18015,7 +18003,7 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B32" s="21" t="s">
@@ -18107,7 +18095,7 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="34" t="s">
         <v>1</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -18199,7 +18187,7 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B34" s="22" t="s">
@@ -18291,7 +18279,7 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B35" s="22" t="s">
@@ -18383,7 +18371,7 @@
       </c>
     </row>
     <row r="36" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B36" s="22" t="s">
@@ -18475,7 +18463,7 @@
       </c>
     </row>
     <row r="37" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="30" t="s">
         <v>2</v>
       </c>
       <c r="B37" s="22" t="s">
@@ -18567,7 +18555,7 @@
       </c>
     </row>
     <row r="38" spans="1:30" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B38" s="14" t="s">
@@ -18659,7 +18647,7 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="65" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B39" s="14" t="s">
@@ -18751,7 +18739,7 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B40" s="14" t="s">
@@ -18843,7 +18831,7 @@
       </c>
     </row>
     <row r="41" spans="1:30" ht="49" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="31" t="s">
         <v>61</v>
       </c>
       <c r="B41" s="14" t="s">
@@ -18944,8 +18932,8 @@
   <dimension ref="A1:BC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:AO31"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN5" sqref="AN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18955,60 +18943,60 @@
   <sheetData>
     <row r="1" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52"/>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="53"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="63"/>
+      <c r="AZ1" s="63"/>
+      <c r="BA1" s="63"/>
+      <c r="BB1" s="63"/>
+      <c r="BC1" s="64"/>
     </row>
     <row r="2" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -24167,7 +24155,7 @@
   <dimension ref="A1:AD41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AD41"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -27791,9 +27779,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AO1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:AO31"/>
+      <selection pane="topRight" activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27803,61 +27791,61 @@
   <sheetData>
     <row r="1" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52"/>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52"/>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
     </row>
     <row r="2" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="47" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="44" t="s">
+      <c r="B2" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="43" t="s">
         <v>64</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -27932,40 +27920,40 @@
       <c r="AC2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL2" s="42" t="s">
+      <c r="AD2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AM2" s="42" t="s">
+      <c r="AM2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AN2" s="42" t="s">
+      <c r="AN2" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="42" t="s">
+      <c r="AO2" s="41" t="s">
         <v>61</v>
       </c>
     </row>
@@ -27979,22 +27967,22 @@
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="H3" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="48" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="17" t="s">
@@ -28003,10 +27991,10 @@
       <c r="K3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="49" t="s">
         <v>62</v>
       </c>
       <c r="N3" s="20" t="s">
@@ -28057,40 +28045,40 @@
       <c r="AC3" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" s="43" t="s">
+      <c r="AD3" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AE3" s="43" t="s">
+      <c r="AE3" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="AF3" s="43" t="s">
+      <c r="AF3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AG3" s="43" t="s">
+      <c r="AG3" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="AH3" s="40" t="s">
+      <c r="AH3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AI3" s="40" t="s">
+      <c r="AI3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="40" t="s">
+      <c r="AJ3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AK3" s="40" t="s">
+      <c r="AK3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="AL3" s="41" t="s">
+      <c r="AL3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AM3" s="41" t="s">
+      <c r="AM3" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="AN3" s="41" t="s">
+      <c r="AN3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="AO3" s="41" t="s">
+      <c r="AO3" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -32636,8 +32624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A958BB17-2560-BB43-AC1D-481391978FF7}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -32735,7 +32723,7 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="13" t="s">
@@ -32827,7 +32815,7 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -32919,10 +32907,10 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C4" s="5">
@@ -33011,10 +32999,10 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="80" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="4">
@@ -33106,7 +33094,7 @@
       <c r="A6" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="5">
@@ -33144,7 +33132,7 @@
       <c r="A7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="4">
@@ -33182,7 +33170,7 @@
       <c r="A8" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="3">
@@ -33274,7 +33262,7 @@
       <c r="A9" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="4">
@@ -33362,9 +33350,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>4</v>
@@ -33454,9 +33442,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>4</v>
@@ -33546,11 +33534,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="3">
@@ -33638,11 +33626,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="49" t="s">
         <v>62</v>
       </c>
       <c r="C13" s="4">
@@ -33730,9 +33718,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>43</v>
@@ -33822,9 +33810,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>43</v>
@@ -33914,9 +33902,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>48</v>
@@ -34006,9 +33994,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>48</v>
@@ -34098,9 +34086,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>47</v>
@@ -34190,9 +34178,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>47</v>
@@ -34282,9 +34270,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>39</v>
@@ -34374,9 +34362,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>39</v>
@@ -34466,9 +34454,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B22" s="20" t="s">
         <v>46</v>
@@ -34558,9 +34546,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>46</v>
@@ -34650,9 +34638,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>40</v>
@@ -34742,9 +34730,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>40</v>
@@ -34834,9 +34822,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B26" s="20" t="s">
         <v>41</v>
@@ -34926,9 +34914,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>41</v>
@@ -35018,9 +35006,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B28" s="20" t="s">
         <v>49</v>
@@ -35110,9 +35098,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="B29" s="20" t="s">
         <v>49</v>
@@ -35203,10 +35191,10 @@
       </c>
     </row>
     <row r="30" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="43" t="s">
+      <c r="A30" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="42" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="3">
@@ -35295,10 +35283,10 @@
       </c>
     </row>
     <row r="31" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="43" t="s">
+      <c r="A31" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="42" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="4">
@@ -35387,10 +35375,10 @@
       </c>
     </row>
     <row r="32" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="43" t="s">
+      <c r="A32" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C32" s="3">
@@ -35479,10 +35467,10 @@
       </c>
     </row>
     <row r="33" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="43" t="s">
+      <c r="A33" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="4">
@@ -35571,10 +35559,10 @@
       </c>
     </row>
     <row r="34" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B34" s="40" t="s">
+      <c r="A34" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="3">
@@ -35663,10 +35651,10 @@
       </c>
     </row>
     <row r="35" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35" s="40" t="s">
+      <c r="A35" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="39" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="4">
@@ -35755,10 +35743,10 @@
       </c>
     </row>
     <row r="36" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="40" t="s">
+      <c r="A36" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="3">
@@ -35847,10 +35835,10 @@
       </c>
     </row>
     <row r="37" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="40" t="s">
+      <c r="A37" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="4">
@@ -35939,10 +35927,10 @@
       </c>
     </row>
     <row r="38" spans="1:30" ht="64" x14ac:dyDescent="0.2">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="3">
@@ -36031,10 +36019,10 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="64" x14ac:dyDescent="0.2">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="40" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="4">
@@ -36123,10 +36111,10 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="3">
@@ -36215,10 +36203,10 @@
       </c>
     </row>
     <row r="41" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="40" t="s">
         <v>58</v>
       </c>
       <c r="C41" s="4">
@@ -36325,49 +36313,49 @@
       <c r="A1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="62" t="s">
+      <c r="H1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="62" t="s">
+      <c r="I1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="62" t="s">
+      <c r="J1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="62" t="s">
+      <c r="K1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="62" t="s">
+      <c r="M1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="O1" s="62" t="s">
+      <c r="O1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="P1" s="62" t="s">
+      <c r="P1" s="58" t="s">
         <v>69</v>
       </c>
     </row>
@@ -36375,49 +36363,49 @@
       <c r="A2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="65" t="s">
+      <c r="I2" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="J2" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="K2" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="O2" s="59" t="s">
+      <c r="O2" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="55" t="s">
         <v>78</v>
       </c>
     </row>
@@ -36425,43 +36413,43 @@
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="50">
         <v>2019</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="51">
         <v>2020</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="54">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="50">
         <v>2019</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="51">
         <v>2020</v>
       </c>
-      <c r="I3" s="54">
+      <c r="I3" s="50">
         <v>2019</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="51">
         <v>2020</v>
       </c>
-      <c r="K3" s="54">
+      <c r="K3" s="50">
         <v>2019</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="51">
         <v>2020</v>
       </c>
-      <c r="M3" s="54">
+      <c r="M3" s="50">
         <v>2019</v>
       </c>
-      <c r="N3" s="55">
+      <c r="N3" s="51">
         <v>2020</v>
       </c>
-      <c r="O3" s="54">
+      <c r="O3" s="50">
         <v>2019</v>
       </c>
-      <c r="P3" s="55">
+      <c r="P3" s="51">
         <v>2020</v>
       </c>
     </row>
@@ -36469,39 +36457,39 @@
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="55">
+      <c r="B4" s="51">
         <v>1237</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="51">
         <v>1165</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52">
         <v>34</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="51">
         <v>40</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="51">
         <v>103</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="51">
         <v>135</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55">
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51">
         <v>23</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4" s="51">
         <v>12</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4" s="51">
         <v>40</v>
       </c>
-      <c r="P4" s="55">
+      <c r="P4" s="51">
         <v>43</v>
       </c>
     </row>
@@ -36509,39 +36497,39 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="51">
         <v>1278</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="51">
         <v>1177</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52">
         <v>34</v>
       </c>
-      <c r="H5" s="55">
+      <c r="H5" s="51">
         <v>31</v>
       </c>
-      <c r="I5" s="55">
+      <c r="I5" s="51">
         <v>104</v>
       </c>
-      <c r="J5" s="55">
+      <c r="J5" s="51">
         <v>136</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55">
+      <c r="K5" s="53"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51">
         <v>23</v>
       </c>
-      <c r="N5" s="55">
+      <c r="N5" s="51">
         <v>10</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="51">
         <v>41</v>
       </c>
-      <c r="P5" s="55">
+      <c r="P5" s="51">
         <v>46</v>
       </c>
     </row>
@@ -36549,79 +36537,79 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="55">
+      <c r="B6" s="51">
         <v>1271</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="51">
         <v>1144</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52">
         <v>38</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="51">
         <v>28</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="51">
         <v>135</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="51">
         <v>137</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55">
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51">
         <v>30</v>
       </c>
-      <c r="N6" s="55">
+      <c r="N6" s="51">
         <v>18</v>
       </c>
-      <c r="O6" s="55">
+      <c r="O6" s="51">
         <v>93</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P6" s="51">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="55">
+      <c r="B7" s="51">
         <v>1249</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="51">
         <v>1037</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52">
         <v>38</v>
       </c>
-      <c r="H7" s="55">
+      <c r="H7" s="51">
         <v>11</v>
       </c>
-      <c r="I7" s="55">
+      <c r="I7" s="51">
         <v>135</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="51">
         <v>131</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51">
         <v>30</v>
       </c>
-      <c r="N7" s="55">
+      <c r="N7" s="51">
         <v>7</v>
       </c>
-      <c r="O7" s="55">
+      <c r="O7" s="51">
         <v>46</v>
       </c>
-      <c r="P7" s="55">
+      <c r="P7" s="51">
         <v>45</v>
       </c>
     </row>
@@ -36629,37 +36617,37 @@
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="55">
+      <c r="B8" s="51">
         <v>1250</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="51">
         <v>1068</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="55">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="51">
         <v>20</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55">
+      <c r="I8" s="51"/>
+      <c r="J8" s="51">
         <v>111</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="51">
         <v>133</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="51">
         <v>157</v>
       </c>
-      <c r="M8" s="57"/>
-      <c r="N8" s="55">
+      <c r="M8" s="53"/>
+      <c r="N8" s="51">
         <v>18</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8" s="51">
         <v>47</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="51">
         <v>30</v>
       </c>
     </row>
@@ -36667,39 +36655,39 @@
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="51">
         <v>1235</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="51">
         <v>1026</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="52">
         <v>23</v>
       </c>
-      <c r="H9" s="55">
+      <c r="H9" s="51">
         <v>17</v>
       </c>
-      <c r="I9" s="55">
+      <c r="I9" s="51">
         <v>107</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="51">
         <v>143</v>
       </c>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55">
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51">
         <v>19</v>
       </c>
-      <c r="N9" s="55">
+      <c r="N9" s="51">
         <v>7</v>
       </c>
-      <c r="O9" s="55">
+      <c r="O9" s="51">
         <v>48</v>
       </c>
-      <c r="P9" s="55">
+      <c r="P9" s="51">
         <v>33</v>
       </c>
     </row>
@@ -36707,39 +36695,39 @@
       <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="55">
+      <c r="B10" s="51">
         <v>1041</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="51">
         <v>1043</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56">
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="52">
         <v>30</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="51">
         <v>20</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="51">
         <v>135</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="51">
         <v>120</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="56">
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="52">
         <v>20</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="51">
         <v>5</v>
       </c>
-      <c r="O10" s="56">
+      <c r="O10" s="52">
         <v>49</v>
       </c>
-      <c r="P10" s="55">
+      <c r="P10" s="51">
         <v>28</v>
       </c>
     </row>
@@ -36747,39 +36735,39 @@
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="55">
+      <c r="B11" s="51">
         <v>1279</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="51">
         <v>1006</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56">
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="52">
         <v>34</v>
       </c>
-      <c r="H11" s="55">
+      <c r="H11" s="51">
         <v>20</v>
       </c>
-      <c r="I11" s="55">
+      <c r="I11" s="51">
         <v>113</v>
       </c>
-      <c r="J11" s="55">
+      <c r="J11" s="51">
         <v>143</v>
       </c>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55">
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51">
         <v>14</v>
       </c>
-      <c r="N11" s="55">
+      <c r="N11" s="51">
         <v>16</v>
       </c>
-      <c r="O11" s="55">
+      <c r="O11" s="51">
         <v>39</v>
       </c>
-      <c r="P11" s="55">
+      <c r="P11" s="51">
         <v>31</v>
       </c>
     </row>
@@ -36787,43 +36775,43 @@
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="51">
         <v>1145</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="51">
         <v>955</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="52">
         <v>26</v>
       </c>
-      <c r="H12" s="55">
+      <c r="H12" s="51">
         <v>25</v>
       </c>
-      <c r="I12" s="55">
+      <c r="I12" s="51">
         <v>121</v>
       </c>
-      <c r="J12" s="55">
+      <c r="J12" s="51">
         <v>131</v>
       </c>
-      <c r="K12" s="55">
+      <c r="K12" s="51">
         <v>131</v>
       </c>
-      <c r="L12" s="55">
+      <c r="L12" s="51">
         <v>114</v>
       </c>
-      <c r="M12" s="55">
+      <c r="M12" s="51">
         <v>19</v>
       </c>
-      <c r="N12" s="55">
+      <c r="N12" s="51">
         <v>14</v>
       </c>
-      <c r="O12" s="55">
+      <c r="O12" s="51">
         <v>59</v>
       </c>
-      <c r="P12" s="55">
+      <c r="P12" s="51">
         <v>29</v>
       </c>
     </row>
@@ -36831,39 +36819,39 @@
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="55">
+      <c r="B13" s="51">
         <v>1177</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="51">
         <v>1122</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56">
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="52">
         <v>47</v>
       </c>
-      <c r="H13" s="55">
+      <c r="H13" s="51">
         <v>31</v>
       </c>
-      <c r="I13" s="55">
+      <c r="I13" s="51">
         <v>114</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="51">
         <v>112</v>
       </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55">
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51">
         <v>20</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13" s="51">
         <v>5</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="51">
         <v>40</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13" s="51">
         <v>30</v>
       </c>
     </row>
@@ -36871,39 +36859,39 @@
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="55">
+      <c r="B14" s="51">
         <v>1099</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="51">
         <v>1018</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52">
         <v>17</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="51">
         <v>15</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="51">
         <v>128</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="51">
         <v>128</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55">
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51">
         <v>20</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14" s="51">
         <v>11</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="51">
         <v>53</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="51">
         <v>39</v>
       </c>
     </row>
@@ -36911,39 +36899,39 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="51">
         <v>1192</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="51">
         <v>1032</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56">
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52">
         <v>29</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="51">
         <v>27</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="51">
         <v>139</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="51">
         <v>127</v>
       </c>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55">
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51">
         <v>22</v>
       </c>
-      <c r="N15" s="55">
+      <c r="N15" s="51">
         <v>12</v>
       </c>
-      <c r="O15" s="55">
+      <c r="O15" s="51">
         <v>32</v>
       </c>
-      <c r="P15" s="55">
+      <c r="P15" s="51">
         <v>34</v>
       </c>
     </row>
@@ -36951,43 +36939,43 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="55">
+      <c r="B16" s="51">
         <v>1194</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="51">
         <v>991</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56">
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52">
         <v>38</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="51">
         <v>30</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="51">
         <v>108</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="51">
         <v>124</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="51">
         <v>158</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="51">
         <v>86</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="51">
         <v>24</v>
       </c>
-      <c r="N16" s="55">
+      <c r="N16" s="51">
         <v>11</v>
       </c>
-      <c r="O16" s="55">
+      <c r="O16" s="51">
         <v>37</v>
       </c>
-      <c r="P16" s="55">
+      <c r="P16" s="51">
         <v>31</v>
       </c>
     </row>
@@ -36995,39 +36983,39 @@
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="51">
         <v>1145</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="51">
         <v>1038</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56">
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52">
         <v>31</v>
       </c>
-      <c r="H17" s="55">
+      <c r="H17" s="51">
         <v>34</v>
       </c>
-      <c r="I17" s="55">
+      <c r="I17" s="51">
         <v>124</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="51">
         <v>112</v>
       </c>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55">
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51">
         <v>36</v>
       </c>
-      <c r="N17" s="55">
+      <c r="N17" s="51">
         <v>22</v>
       </c>
-      <c r="O17" s="55">
+      <c r="O17" s="51">
         <v>54</v>
       </c>
-      <c r="P17" s="55">
+      <c r="P17" s="51">
         <v>42</v>
       </c>
     </row>
@@ -37035,39 +37023,39 @@
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="55">
+      <c r="B18" s="51">
         <v>1088</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="51">
         <v>1308</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56">
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52">
         <v>47</v>
       </c>
-      <c r="H18" s="55">
+      <c r="H18" s="51">
         <v>22</v>
       </c>
-      <c r="I18" s="55">
+      <c r="I18" s="51">
         <v>120</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="51">
         <v>141</v>
       </c>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55">
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51">
         <v>20</v>
       </c>
-      <c r="N18" s="55">
+      <c r="N18" s="51">
         <v>9</v>
       </c>
-      <c r="O18" s="55">
+      <c r="O18" s="51">
         <v>40</v>
       </c>
-      <c r="P18" s="55">
+      <c r="P18" s="51">
         <v>45</v>
       </c>
     </row>
@@ -37075,39 +37063,39 @@
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B19" s="51">
         <v>1080</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="51">
         <v>1334</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56">
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52">
         <v>44</v>
       </c>
-      <c r="H19" s="55">
+      <c r="H19" s="51">
         <v>31</v>
       </c>
-      <c r="I19" s="55">
+      <c r="I19" s="51">
         <v>140</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="51">
         <v>126</v>
       </c>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55">
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51">
         <v>18</v>
       </c>
-      <c r="N19" s="55">
+      <c r="N19" s="51">
         <v>9</v>
       </c>
-      <c r="O19" s="55">
+      <c r="O19" s="51">
         <v>63</v>
       </c>
-      <c r="P19" s="55">
+      <c r="P19" s="51">
         <v>33</v>
       </c>
     </row>
@@ -37115,43 +37103,43 @@
       <c r="A20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="55">
+      <c r="B20" s="51">
         <v>1165</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="51">
         <v>1417</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56">
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52">
         <v>36</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="51">
         <v>28</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="51">
         <v>132</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="51">
         <v>132</v>
       </c>
-      <c r="K20" s="55">
+      <c r="K20" s="51">
         <v>102</v>
       </c>
-      <c r="L20" s="55" t="s">
+      <c r="L20" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="55">
+      <c r="M20" s="51">
         <v>25</v>
       </c>
-      <c r="N20" s="55">
+      <c r="N20" s="51">
         <v>14</v>
       </c>
-      <c r="O20" s="55">
+      <c r="O20" s="51">
         <v>49</v>
       </c>
-      <c r="P20" s="55">
+      <c r="P20" s="51">
         <v>45</v>
       </c>
     </row>
@@ -37159,39 +37147,39 @@
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="55">
+      <c r="B21" s="51">
         <v>1038</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="51">
         <v>1424</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56">
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="52">
         <v>32</v>
       </c>
-      <c r="H21" s="55">
+      <c r="H21" s="51">
         <v>23</v>
       </c>
-      <c r="I21" s="55">
+      <c r="I21" s="51">
         <v>153</v>
       </c>
-      <c r="J21" s="55">
+      <c r="J21" s="51">
         <v>133</v>
       </c>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55">
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51">
         <v>31</v>
       </c>
-      <c r="N21" s="55">
+      <c r="N21" s="51">
         <v>17</v>
       </c>
-      <c r="O21" s="55">
+      <c r="O21" s="51">
         <v>46</v>
       </c>
-      <c r="P21" s="55">
+      <c r="P21" s="51">
         <v>42</v>
       </c>
     </row>
@@ -37199,39 +37187,39 @@
       <c r="A22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="55">
+      <c r="B22" s="51">
         <v>1109</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="51">
         <v>1442</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56">
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="52">
         <v>33</v>
       </c>
-      <c r="H22" s="55">
+      <c r="H22" s="51">
         <v>33</v>
       </c>
-      <c r="I22" s="55">
+      <c r="I22" s="51">
         <v>142</v>
       </c>
-      <c r="J22" s="55">
+      <c r="J22" s="51">
         <v>142</v>
       </c>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55">
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51">
         <v>24</v>
       </c>
-      <c r="N22" s="55">
+      <c r="N22" s="51">
         <v>9</v>
       </c>
-      <c r="O22" s="55">
+      <c r="O22" s="51">
         <v>52</v>
       </c>
-      <c r="P22" s="55">
+      <c r="P22" s="51">
         <v>44</v>
       </c>
     </row>
@@ -37239,39 +37227,39 @@
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="51">
         <v>789</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="51">
         <v>1485</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56">
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="52">
         <v>33</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="51">
         <v>45</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="51">
         <v>143</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="51">
         <v>132</v>
       </c>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55">
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51">
         <v>25</v>
       </c>
-      <c r="N23" s="55">
+      <c r="N23" s="51">
         <v>13</v>
       </c>
-      <c r="O23" s="55">
+      <c r="O23" s="51">
         <v>52</v>
       </c>
-      <c r="P23" s="55">
+      <c r="P23" s="51">
         <v>49</v>
       </c>
     </row>
@@ -37279,43 +37267,43 @@
       <c r="A24" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="55">
+      <c r="B24" s="51">
         <v>1026</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="51">
         <v>911</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56">
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="52">
         <v>30</v>
       </c>
-      <c r="H24" s="55">
+      <c r="H24" s="51">
         <v>35</v>
       </c>
-      <c r="I24" s="55">
+      <c r="I24" s="51">
         <v>123</v>
       </c>
-      <c r="J24" s="55">
+      <c r="J24" s="51">
         <v>116</v>
       </c>
-      <c r="K24" s="55">
+      <c r="K24" s="51">
         <v>63</v>
       </c>
-      <c r="L24" s="55">
+      <c r="L24" s="51">
         <v>113</v>
       </c>
-      <c r="M24" s="55">
+      <c r="M24" s="51">
         <v>20</v>
       </c>
-      <c r="N24" s="55">
+      <c r="N24" s="51">
         <v>8</v>
       </c>
-      <c r="O24" s="55">
+      <c r="O24" s="51">
         <v>38</v>
       </c>
-      <c r="P24" s="55">
+      <c r="P24" s="51">
         <v>38</v>
       </c>
     </row>
@@ -37323,39 +37311,39 @@
       <c r="A25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="55">
+      <c r="B25" s="51">
         <v>1061</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="51">
         <v>1328</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56">
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="52">
         <v>29</v>
       </c>
-      <c r="H25" s="55">
+      <c r="H25" s="51">
         <v>36</v>
       </c>
-      <c r="I25" s="55">
+      <c r="I25" s="51">
         <v>120</v>
       </c>
-      <c r="J25" s="55">
+      <c r="J25" s="51">
         <v>118</v>
       </c>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55">
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51">
         <v>17</v>
       </c>
-      <c r="N25" s="55">
+      <c r="N25" s="51">
         <v>13</v>
       </c>
-      <c r="O25" s="55">
+      <c r="O25" s="51">
         <v>42</v>
       </c>
-      <c r="P25" s="55">
+      <c r="P25" s="51">
         <v>45</v>
       </c>
     </row>
@@ -37363,39 +37351,39 @@
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="55">
+      <c r="B26" s="51">
         <v>1055</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="51">
         <v>1309</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56">
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="52">
         <v>31</v>
       </c>
-      <c r="H26" s="55">
+      <c r="H26" s="51">
         <v>29</v>
       </c>
-      <c r="I26" s="55">
+      <c r="I26" s="51">
         <v>119</v>
       </c>
-      <c r="J26" s="55">
+      <c r="J26" s="51">
         <v>150</v>
       </c>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55">
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51">
         <v>29</v>
       </c>
-      <c r="N26" s="55">
+      <c r="N26" s="51">
         <v>9</v>
       </c>
-      <c r="O26" s="55">
+      <c r="O26" s="51">
         <v>37</v>
       </c>
-      <c r="P26" s="55">
+      <c r="P26" s="51">
         <v>47</v>
       </c>
     </row>
@@ -37403,39 +37391,39 @@
       <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="51">
         <v>1036</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="51">
         <v>1381</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56">
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="52">
         <v>24</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="51">
         <v>43</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="51">
         <v>138</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="51">
         <v>142</v>
       </c>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55">
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51">
         <v>19</v>
       </c>
-      <c r="N27" s="55">
+      <c r="N27" s="51">
         <v>19</v>
       </c>
-      <c r="O27" s="55">
+      <c r="O27" s="51">
         <v>37</v>
       </c>
-      <c r="P27" s="55">
+      <c r="P27" s="51">
         <v>38</v>
       </c>
     </row>
@@ -37443,43 +37431,43 @@
       <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="55">
+      <c r="B28" s="51">
         <v>1070</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="51">
         <v>1435</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56">
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="52">
         <v>28</v>
       </c>
-      <c r="H28" s="55">
+      <c r="H28" s="51">
         <v>29</v>
       </c>
-      <c r="I28" s="55">
+      <c r="I28" s="51">
         <v>120</v>
       </c>
-      <c r="J28" s="55">
+      <c r="J28" s="51">
         <v>136</v>
       </c>
-      <c r="K28" s="55">
+      <c r="K28" s="51">
         <v>66</v>
       </c>
-      <c r="L28" s="55">
+      <c r="L28" s="51">
         <v>93</v>
       </c>
-      <c r="M28" s="55">
+      <c r="M28" s="51">
         <v>16</v>
       </c>
-      <c r="N28" s="55">
+      <c r="N28" s="51">
         <v>12</v>
       </c>
-      <c r="O28" s="55">
+      <c r="O28" s="51">
         <v>40</v>
       </c>
-      <c r="P28" s="55">
+      <c r="P28" s="51">
         <v>36</v>
       </c>
     </row>
@@ -37487,39 +37475,39 @@
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="55">
+      <c r="B29" s="51">
         <v>961</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="51">
         <v>1403</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56">
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="52">
         <v>22</v>
       </c>
-      <c r="H29" s="55">
+      <c r="H29" s="51">
         <v>23</v>
       </c>
-      <c r="I29" s="55">
+      <c r="I29" s="51">
         <v>150</v>
       </c>
-      <c r="J29" s="55">
+      <c r="J29" s="51">
         <v>137</v>
       </c>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55">
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51">
         <v>34</v>
       </c>
-      <c r="N29" s="55">
+      <c r="N29" s="51">
         <v>15</v>
       </c>
-      <c r="O29" s="55">
+      <c r="O29" s="51">
         <v>38</v>
       </c>
-      <c r="P29" s="55">
+      <c r="P29" s="51">
         <v>37</v>
       </c>
     </row>
@@ -37527,39 +37515,39 @@
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="55">
+      <c r="B30" s="51">
         <v>984</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="51">
         <v>1345</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56">
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="52">
         <v>36</v>
       </c>
-      <c r="H30" s="55">
+      <c r="H30" s="51">
         <v>40</v>
       </c>
-      <c r="I30" s="55">
+      <c r="I30" s="51">
         <v>143</v>
       </c>
-      <c r="J30" s="55">
+      <c r="J30" s="51">
         <v>130</v>
       </c>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55">
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51">
         <v>27</v>
       </c>
-      <c r="N30" s="55">
+      <c r="N30" s="51">
         <v>19</v>
       </c>
-      <c r="O30" s="55">
+      <c r="O30" s="51">
         <v>36</v>
       </c>
-      <c r="P30" s="55">
+      <c r="P30" s="51">
         <v>36</v>
       </c>
     </row>
@@ -37572,7 +37560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4BFC83-BD97-8645-AD75-ADA87AA927BA}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -37597,7 +37585,7 @@
       <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="54" t="s">
         <v>24</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -37671,1124 +37659,1124 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="50">
         <v>2019</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="51">
         <v>1237</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="51">
         <v>1278</v>
       </c>
-      <c r="F2" s="55">
+      <c r="F2" s="51">
         <v>1271</v>
       </c>
-      <c r="G2" s="55">
+      <c r="G2" s="51">
         <v>1249</v>
       </c>
-      <c r="H2" s="55">
+      <c r="H2" s="51">
         <v>1250</v>
       </c>
-      <c r="I2" s="55">
+      <c r="I2" s="51">
         <v>1235</v>
       </c>
-      <c r="J2" s="55">
+      <c r="J2" s="51">
         <v>1041</v>
       </c>
-      <c r="K2" s="55">
+      <c r="K2" s="51">
         <v>1279</v>
       </c>
-      <c r="L2" s="55">
+      <c r="L2" s="51">
         <v>1145</v>
       </c>
-      <c r="M2" s="55">
+      <c r="M2" s="51">
         <v>1177</v>
       </c>
-      <c r="N2" s="55">
+      <c r="N2" s="51">
         <v>1099</v>
       </c>
-      <c r="O2" s="55">
+      <c r="O2" s="51">
         <v>1192</v>
       </c>
-      <c r="P2" s="55">
+      <c r="P2" s="51">
         <v>1194</v>
       </c>
-      <c r="Q2" s="55">
+      <c r="Q2" s="51">
         <v>1145</v>
       </c>
-      <c r="R2" s="55">
+      <c r="R2" s="51">
         <v>1088</v>
       </c>
-      <c r="S2" s="55">
+      <c r="S2" s="51">
         <v>1080</v>
       </c>
-      <c r="T2" s="55">
+      <c r="T2" s="51">
         <v>1165</v>
       </c>
-      <c r="U2" s="55">
+      <c r="U2" s="51">
         <v>1038</v>
       </c>
-      <c r="V2" s="55">
+      <c r="V2" s="51">
         <v>1109</v>
       </c>
-      <c r="W2" s="55">
+      <c r="W2" s="51">
         <v>789</v>
       </c>
-      <c r="X2" s="55">
+      <c r="X2" s="51">
         <v>1026</v>
       </c>
-      <c r="Y2" s="55">
+      <c r="Y2" s="51">
         <v>1061</v>
       </c>
-      <c r="Z2" s="55">
+      <c r="Z2" s="51">
         <v>1055</v>
       </c>
-      <c r="AA2" s="55">
+      <c r="AA2" s="51">
         <v>1036</v>
       </c>
-      <c r="AB2" s="55">
+      <c r="AB2" s="51">
         <v>1070</v>
       </c>
-      <c r="AC2" s="55">
+      <c r="AC2" s="51">
         <v>961</v>
       </c>
-      <c r="AD2" s="55">
+      <c r="AD2" s="51">
         <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="51">
         <v>2020</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="51">
         <v>1165</v>
       </c>
-      <c r="E3" s="55">
+      <c r="E3" s="51">
         <v>1177</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="51">
         <v>1144</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="51">
         <v>1037</v>
       </c>
-      <c r="H3" s="55">
+      <c r="H3" s="51">
         <v>1068</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="51">
         <v>1026</v>
       </c>
-      <c r="J3" s="55">
+      <c r="J3" s="51">
         <v>1043</v>
       </c>
-      <c r="K3" s="55">
+      <c r="K3" s="51">
         <v>1006</v>
       </c>
-      <c r="L3" s="55">
+      <c r="L3" s="51">
         <v>955</v>
       </c>
-      <c r="M3" s="55">
+      <c r="M3" s="51">
         <v>1122</v>
       </c>
-      <c r="N3" s="55">
+      <c r="N3" s="51">
         <v>1018</v>
       </c>
-      <c r="O3" s="55">
+      <c r="O3" s="51">
         <v>1032</v>
       </c>
-      <c r="P3" s="55">
+      <c r="P3" s="51">
         <v>991</v>
       </c>
-      <c r="Q3" s="55">
+      <c r="Q3" s="51">
         <v>1038</v>
       </c>
-      <c r="R3" s="55">
+      <c r="R3" s="51">
         <v>1308</v>
       </c>
-      <c r="S3" s="55">
+      <c r="S3" s="51">
         <v>1334</v>
       </c>
-      <c r="T3" s="55">
+      <c r="T3" s="51">
         <v>1417</v>
       </c>
-      <c r="U3" s="55">
+      <c r="U3" s="51">
         <v>1424</v>
       </c>
-      <c r="V3" s="55">
+      <c r="V3" s="51">
         <v>1442</v>
       </c>
-      <c r="W3" s="55">
+      <c r="W3" s="51">
         <v>1485</v>
       </c>
-      <c r="X3" s="55">
+      <c r="X3" s="51">
         <v>911</v>
       </c>
-      <c r="Y3" s="55">
+      <c r="Y3" s="51">
         <v>1328</v>
       </c>
-      <c r="Z3" s="55">
+      <c r="Z3" s="51">
         <v>1309</v>
       </c>
-      <c r="AA3" s="55">
+      <c r="AA3" s="51">
         <v>1381</v>
       </c>
-      <c r="AB3" s="55">
+      <c r="AB3" s="51">
         <v>1435</v>
       </c>
-      <c r="AC3" s="55">
+      <c r="AC3" s="51">
         <v>1403</v>
       </c>
-      <c r="AD3" s="55">
+      <c r="AD3" s="51">
         <v>1345</v>
       </c>
     </row>
     <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="51"/>
+      <c r="AD4" s="51"/>
     </row>
     <row r="5" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55"/>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="55"/>
-      <c r="AA5" s="55"/>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55"/>
-      <c r="AD5" s="55"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="51"/>
+      <c r="Y5" s="51"/>
+      <c r="Z5" s="51"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="51"/>
+      <c r="AD5" s="51"/>
     </row>
     <row r="6" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="51"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="51"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="51"/>
     </row>
     <row r="7" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="50">
         <v>2019</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="52">
         <v>34</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="52">
         <v>34</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="52">
         <v>38</v>
       </c>
-      <c r="G7" s="56">
+      <c r="G7" s="52">
         <v>38</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="56">
+      <c r="H7" s="53"/>
+      <c r="I7" s="52">
         <v>23</v>
       </c>
-      <c r="J7" s="56">
+      <c r="J7" s="52">
         <v>30</v>
       </c>
-      <c r="K7" s="56">
+      <c r="K7" s="52">
         <v>34</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="52">
         <v>26</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="52">
         <v>47</v>
       </c>
-      <c r="N7" s="56">
+      <c r="N7" s="52">
         <v>17</v>
       </c>
-      <c r="O7" s="56">
+      <c r="O7" s="52">
         <v>29</v>
       </c>
-      <c r="P7" s="56">
+      <c r="P7" s="52">
         <v>38</v>
       </c>
-      <c r="Q7" s="56">
+      <c r="Q7" s="52">
         <v>31</v>
       </c>
-      <c r="R7" s="56">
+      <c r="R7" s="52">
         <v>47</v>
       </c>
-      <c r="S7" s="56">
+      <c r="S7" s="52">
         <v>44</v>
       </c>
-      <c r="T7" s="56">
+      <c r="T7" s="52">
         <v>36</v>
       </c>
-      <c r="U7" s="56">
+      <c r="U7" s="52">
         <v>32</v>
       </c>
-      <c r="V7" s="56">
+      <c r="V7" s="52">
         <v>33</v>
       </c>
-      <c r="W7" s="56">
+      <c r="W7" s="52">
         <v>33</v>
       </c>
-      <c r="X7" s="56">
+      <c r="X7" s="52">
         <v>30</v>
       </c>
-      <c r="Y7" s="56">
+      <c r="Y7" s="52">
         <v>29</v>
       </c>
-      <c r="Z7" s="56">
+      <c r="Z7" s="52">
         <v>31</v>
       </c>
-      <c r="AA7" s="56">
+      <c r="AA7" s="52">
         <v>24</v>
       </c>
-      <c r="AB7" s="56">
+      <c r="AB7" s="52">
         <v>28</v>
       </c>
-      <c r="AC7" s="56">
+      <c r="AC7" s="52">
         <v>22</v>
       </c>
-      <c r="AD7" s="56">
+      <c r="AD7" s="52">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="51">
         <v>2020</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="51">
         <v>40</v>
       </c>
-      <c r="E8" s="55">
+      <c r="E8" s="51">
         <v>31</v>
       </c>
-      <c r="F8" s="55">
+      <c r="F8" s="51">
         <v>28</v>
       </c>
-      <c r="G8" s="55">
+      <c r="G8" s="51">
         <v>11</v>
       </c>
-      <c r="H8" s="55">
+      <c r="H8" s="51">
         <v>20</v>
       </c>
-      <c r="I8" s="55">
+      <c r="I8" s="51">
         <v>17</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="51">
         <v>20</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="51">
         <v>20</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="51">
         <v>25</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8" s="51">
         <v>31</v>
       </c>
-      <c r="N8" s="55">
+      <c r="N8" s="51">
         <v>15</v>
       </c>
-      <c r="O8" s="55">
+      <c r="O8" s="51">
         <v>27</v>
       </c>
-      <c r="P8" s="55">
+      <c r="P8" s="51">
         <v>30</v>
       </c>
-      <c r="Q8" s="55">
+      <c r="Q8" s="51">
         <v>34</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8" s="51">
         <v>22</v>
       </c>
-      <c r="S8" s="55">
+      <c r="S8" s="51">
         <v>31</v>
       </c>
-      <c r="T8" s="55">
+      <c r="T8" s="51">
         <v>28</v>
       </c>
-      <c r="U8" s="55">
+      <c r="U8" s="51">
         <v>23</v>
       </c>
-      <c r="V8" s="55">
+      <c r="V8" s="51">
         <v>33</v>
       </c>
-      <c r="W8" s="55">
+      <c r="W8" s="51">
         <v>45</v>
       </c>
-      <c r="X8" s="55">
+      <c r="X8" s="51">
         <v>35</v>
       </c>
-      <c r="Y8" s="55">
+      <c r="Y8" s="51">
         <v>36</v>
       </c>
-      <c r="Z8" s="55">
+      <c r="Z8" s="51">
         <v>29</v>
       </c>
-      <c r="AA8" s="55">
+      <c r="AA8" s="51">
         <v>43</v>
       </c>
-      <c r="AB8" s="55">
+      <c r="AB8" s="51">
         <v>29</v>
       </c>
-      <c r="AC8" s="55">
+      <c r="AC8" s="51">
         <v>23</v>
       </c>
-      <c r="AD8" s="55">
+      <c r="AD8" s="51">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="50">
         <v>2019</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="51">
         <v>103</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="51">
         <v>104</v>
       </c>
-      <c r="F9" s="55">
+      <c r="F9" s="51">
         <v>135</v>
       </c>
-      <c r="G9" s="55">
+      <c r="G9" s="51">
         <v>135</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55">
+      <c r="H9" s="51"/>
+      <c r="I9" s="51">
         <v>107</v>
       </c>
-      <c r="J9" s="55">
+      <c r="J9" s="51">
         <v>135</v>
       </c>
-      <c r="K9" s="55">
+      <c r="K9" s="51">
         <v>113</v>
       </c>
-      <c r="L9" s="55">
+      <c r="L9" s="51">
         <v>121</v>
       </c>
-      <c r="M9" s="55">
+      <c r="M9" s="51">
         <v>114</v>
       </c>
-      <c r="N9" s="55">
+      <c r="N9" s="51">
         <v>128</v>
       </c>
-      <c r="O9" s="55">
+      <c r="O9" s="51">
         <v>139</v>
       </c>
-      <c r="P9" s="55">
+      <c r="P9" s="51">
         <v>108</v>
       </c>
-      <c r="Q9" s="55">
+      <c r="Q9" s="51">
         <v>124</v>
       </c>
-      <c r="R9" s="55">
+      <c r="R9" s="51">
         <v>120</v>
       </c>
-      <c r="S9" s="55">
+      <c r="S9" s="51">
         <v>140</v>
       </c>
-      <c r="T9" s="55">
+      <c r="T9" s="51">
         <v>132</v>
       </c>
-      <c r="U9" s="55">
+      <c r="U9" s="51">
         <v>153</v>
       </c>
-      <c r="V9" s="55">
+      <c r="V9" s="51">
         <v>142</v>
       </c>
-      <c r="W9" s="55">
+      <c r="W9" s="51">
         <v>143</v>
       </c>
-      <c r="X9" s="55">
+      <c r="X9" s="51">
         <v>123</v>
       </c>
-      <c r="Y9" s="55">
+      <c r="Y9" s="51">
         <v>120</v>
       </c>
-      <c r="Z9" s="55">
+      <c r="Z9" s="51">
         <v>119</v>
       </c>
-      <c r="AA9" s="55">
+      <c r="AA9" s="51">
         <v>138</v>
       </c>
-      <c r="AB9" s="55">
+      <c r="AB9" s="51">
         <v>120</v>
       </c>
-      <c r="AC9" s="55">
+      <c r="AC9" s="51">
         <v>150</v>
       </c>
-      <c r="AD9" s="55">
+      <c r="AD9" s="51">
         <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="51">
         <v>2020</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="51">
         <v>135</v>
       </c>
-      <c r="E10" s="55">
+      <c r="E10" s="51">
         <v>136</v>
       </c>
-      <c r="F10" s="55">
+      <c r="F10" s="51">
         <v>137</v>
       </c>
-      <c r="G10" s="55">
+      <c r="G10" s="51">
         <v>131</v>
       </c>
-      <c r="H10" s="55">
+      <c r="H10" s="51">
         <v>111</v>
       </c>
-      <c r="I10" s="55">
+      <c r="I10" s="51">
         <v>143</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="51">
         <v>120</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="51">
         <v>143</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="51">
         <v>131</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="51">
         <v>112</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="51">
         <v>128</v>
       </c>
-      <c r="O10" s="55">
+      <c r="O10" s="51">
         <v>127</v>
       </c>
-      <c r="P10" s="55">
+      <c r="P10" s="51">
         <v>124</v>
       </c>
-      <c r="Q10" s="55">
+      <c r="Q10" s="51">
         <v>112</v>
       </c>
-      <c r="R10" s="55">
+      <c r="R10" s="51">
         <v>141</v>
       </c>
-      <c r="S10" s="55">
+      <c r="S10" s="51">
         <v>126</v>
       </c>
-      <c r="T10" s="55">
+      <c r="T10" s="51">
         <v>132</v>
       </c>
-      <c r="U10" s="55">
+      <c r="U10" s="51">
         <v>133</v>
       </c>
-      <c r="V10" s="55">
+      <c r="V10" s="51">
         <v>142</v>
       </c>
-      <c r="W10" s="55">
+      <c r="W10" s="51">
         <v>132</v>
       </c>
-      <c r="X10" s="55">
+      <c r="X10" s="51">
         <v>116</v>
       </c>
-      <c r="Y10" s="55">
+      <c r="Y10" s="51">
         <v>118</v>
       </c>
-      <c r="Z10" s="55">
+      <c r="Z10" s="51">
         <v>150</v>
       </c>
-      <c r="AA10" s="55">
+      <c r="AA10" s="51">
         <v>142</v>
       </c>
-      <c r="AB10" s="55">
+      <c r="AB10" s="51">
         <v>136</v>
       </c>
-      <c r="AC10" s="55">
+      <c r="AC10" s="51">
         <v>137</v>
       </c>
-      <c r="AD10" s="55">
+      <c r="AD10" s="51">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="B11" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="50">
         <v>2019</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55">
+      <c r="D11" s="51"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51">
         <v>133</v>
       </c>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55">
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51">
         <v>131</v>
       </c>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55">
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51">
         <v>158</v>
       </c>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55">
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51">
         <v>102</v>
       </c>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55">
+      <c r="U11" s="51"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="51"/>
+      <c r="X11" s="51">
         <v>63</v>
       </c>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55">
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51">
         <v>66</v>
       </c>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="55"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
     </row>
     <row r="12" spans="1:30" ht="272" x14ac:dyDescent="0.2">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="51">
         <v>2020</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51">
         <v>157</v>
       </c>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55">
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51">
         <v>114</v>
       </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55">
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51">
         <v>86</v>
       </c>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55" t="s">
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55">
+      <c r="U12" s="51"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="51">
         <v>113</v>
       </c>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="55">
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51">
         <v>93</v>
       </c>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="55"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
     </row>
     <row r="13" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="54">
+      <c r="C13" s="50">
         <v>2019</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="51">
         <v>23</v>
       </c>
-      <c r="E13" s="55">
+      <c r="E13" s="51">
         <v>23</v>
       </c>
-      <c r="F13" s="55">
+      <c r="F13" s="51">
         <v>30</v>
       </c>
-      <c r="G13" s="55">
+      <c r="G13" s="51">
         <v>30</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="55">
+      <c r="H13" s="53"/>
+      <c r="I13" s="51">
         <v>19</v>
       </c>
-      <c r="J13" s="56">
+      <c r="J13" s="52">
         <v>20</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="51">
         <v>14</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13" s="51">
         <v>19</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="51">
         <v>20</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13" s="51">
         <v>20</v>
       </c>
-      <c r="O13" s="55">
+      <c r="O13" s="51">
         <v>22</v>
       </c>
-      <c r="P13" s="55">
+      <c r="P13" s="51">
         <v>24</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="51">
         <v>36</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="51">
         <v>20</v>
       </c>
-      <c r="S13" s="55">
+      <c r="S13" s="51">
         <v>18</v>
       </c>
-      <c r="T13" s="55">
+      <c r="T13" s="51">
         <v>25</v>
       </c>
-      <c r="U13" s="55">
+      <c r="U13" s="51">
         <v>31</v>
       </c>
-      <c r="V13" s="55">
+      <c r="V13" s="51">
         <v>24</v>
       </c>
-      <c r="W13" s="55">
+      <c r="W13" s="51">
         <v>25</v>
       </c>
-      <c r="X13" s="55">
+      <c r="X13" s="51">
         <v>20</v>
       </c>
-      <c r="Y13" s="55">
+      <c r="Y13" s="51">
         <v>17</v>
       </c>
-      <c r="Z13" s="55">
+      <c r="Z13" s="51">
         <v>29</v>
       </c>
-      <c r="AA13" s="55">
+      <c r="AA13" s="51">
         <v>19</v>
       </c>
-      <c r="AB13" s="55">
+      <c r="AB13" s="51">
         <v>16</v>
       </c>
-      <c r="AC13" s="55">
+      <c r="AC13" s="51">
         <v>34</v>
       </c>
-      <c r="AD13" s="55">
+      <c r="AD13" s="51">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="51">
         <v>2020</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="51">
         <v>12</v>
       </c>
-      <c r="E14" s="55">
+      <c r="E14" s="51">
         <v>10</v>
       </c>
-      <c r="F14" s="55">
+      <c r="F14" s="51">
         <v>18</v>
       </c>
-      <c r="G14" s="55">
+      <c r="G14" s="51">
         <v>7</v>
       </c>
-      <c r="H14" s="55">
+      <c r="H14" s="51">
         <v>18</v>
       </c>
-      <c r="I14" s="55">
+      <c r="I14" s="51">
         <v>7</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="51">
         <v>5</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="51">
         <v>16</v>
       </c>
-      <c r="L14" s="55">
+      <c r="L14" s="51">
         <v>14</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="51">
         <v>5</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14" s="51">
         <v>11</v>
       </c>
-      <c r="O14" s="55">
+      <c r="O14" s="51">
         <v>12</v>
       </c>
-      <c r="P14" s="55">
+      <c r="P14" s="51">
         <v>11</v>
       </c>
-      <c r="Q14" s="55">
+      <c r="Q14" s="51">
         <v>22</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="51">
         <v>9</v>
       </c>
-      <c r="S14" s="55">
+      <c r="S14" s="51">
         <v>9</v>
       </c>
-      <c r="T14" s="55">
+      <c r="T14" s="51">
         <v>14</v>
       </c>
-      <c r="U14" s="55">
+      <c r="U14" s="51">
         <v>17</v>
       </c>
-      <c r="V14" s="55">
+      <c r="V14" s="51">
         <v>9</v>
       </c>
-      <c r="W14" s="55">
+      <c r="W14" s="51">
         <v>13</v>
       </c>
-      <c r="X14" s="55">
+      <c r="X14" s="51">
         <v>8</v>
       </c>
-      <c r="Y14" s="55">
+      <c r="Y14" s="51">
         <v>13</v>
       </c>
-      <c r="Z14" s="55">
+      <c r="Z14" s="51">
         <v>9</v>
       </c>
-      <c r="AA14" s="55">
+      <c r="AA14" s="51">
         <v>19</v>
       </c>
-      <c r="AB14" s="55">
+      <c r="AB14" s="51">
         <v>12</v>
       </c>
-      <c r="AC14" s="55">
+      <c r="AC14" s="51">
         <v>15</v>
       </c>
-      <c r="AD14" s="55">
+      <c r="AD14" s="51">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="54">
+      <c r="C15" s="50">
         <v>2019</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="51">
         <v>40</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="51">
         <v>41</v>
       </c>
-      <c r="F15" s="55">
+      <c r="F15" s="51">
         <v>93</v>
       </c>
-      <c r="G15" s="55">
+      <c r="G15" s="51">
         <v>46</v>
       </c>
-      <c r="H15" s="55">
+      <c r="H15" s="51">
         <v>47</v>
       </c>
-      <c r="I15" s="55">
+      <c r="I15" s="51">
         <v>48</v>
       </c>
-      <c r="J15" s="56">
+      <c r="J15" s="52">
         <v>49</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="51">
         <v>39</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="51">
         <v>59</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15" s="51">
         <v>40</v>
       </c>
-      <c r="N15" s="55">
+      <c r="N15" s="51">
         <v>53</v>
       </c>
-      <c r="O15" s="55">
+      <c r="O15" s="51">
         <v>32</v>
       </c>
-      <c r="P15" s="55">
+      <c r="P15" s="51">
         <v>37</v>
       </c>
-      <c r="Q15" s="55">
+      <c r="Q15" s="51">
         <v>54</v>
       </c>
-      <c r="R15" s="55">
+      <c r="R15" s="51">
         <v>40</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="51">
         <v>63</v>
       </c>
-      <c r="T15" s="55">
+      <c r="T15" s="51">
         <v>49</v>
       </c>
-      <c r="U15" s="55">
+      <c r="U15" s="51">
         <v>46</v>
       </c>
-      <c r="V15" s="55">
+      <c r="V15" s="51">
         <v>52</v>
       </c>
-      <c r="W15" s="55">
+      <c r="W15" s="51">
         <v>52</v>
       </c>
-      <c r="X15" s="55">
+      <c r="X15" s="51">
         <v>38</v>
       </c>
-      <c r="Y15" s="55">
+      <c r="Y15" s="51">
         <v>42</v>
       </c>
-      <c r="Z15" s="55">
+      <c r="Z15" s="51">
         <v>37</v>
       </c>
-      <c r="AA15" s="55">
+      <c r="AA15" s="51">
         <v>37</v>
       </c>
-      <c r="AB15" s="55">
+      <c r="AB15" s="51">
         <v>40</v>
       </c>
-      <c r="AC15" s="55">
+      <c r="AC15" s="51">
         <v>38</v>
       </c>
-      <c r="AD15" s="55">
+      <c r="AD15" s="51">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="51">
         <v>2020</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="51">
         <v>43</v>
       </c>
-      <c r="E16" s="55">
+      <c r="E16" s="51">
         <v>46</v>
       </c>
-      <c r="F16" s="55">
+      <c r="F16" s="51">
         <v>35</v>
       </c>
-      <c r="G16" s="55">
+      <c r="G16" s="51">
         <v>45</v>
       </c>
-      <c r="H16" s="55">
+      <c r="H16" s="51">
         <v>30</v>
       </c>
-      <c r="I16" s="55">
+      <c r="I16" s="51">
         <v>33</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="51">
         <v>28</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="51">
         <v>31</v>
       </c>
-      <c r="L16" s="55">
+      <c r="L16" s="51">
         <v>29</v>
       </c>
-      <c r="M16" s="55">
+      <c r="M16" s="51">
         <v>30</v>
       </c>
-      <c r="N16" s="55">
+      <c r="N16" s="51">
         <v>39</v>
       </c>
-      <c r="O16" s="55">
+      <c r="O16" s="51">
         <v>34</v>
       </c>
-      <c r="P16" s="55">
+      <c r="P16" s="51">
         <v>31</v>
       </c>
-      <c r="Q16" s="55">
+      <c r="Q16" s="51">
         <v>42</v>
       </c>
-      <c r="R16" s="55">
+      <c r="R16" s="51">
         <v>45</v>
       </c>
-      <c r="S16" s="55">
+      <c r="S16" s="51">
         <v>33</v>
       </c>
-      <c r="T16" s="55">
+      <c r="T16" s="51">
         <v>45</v>
       </c>
-      <c r="U16" s="55">
+      <c r="U16" s="51">
         <v>42</v>
       </c>
-      <c r="V16" s="55">
+      <c r="V16" s="51">
         <v>44</v>
       </c>
-      <c r="W16" s="55">
+      <c r="W16" s="51">
         <v>49</v>
       </c>
-      <c r="X16" s="55">
+      <c r="X16" s="51">
         <v>38</v>
       </c>
-      <c r="Y16" s="55">
+      <c r="Y16" s="51">
         <v>45</v>
       </c>
-      <c r="Z16" s="55">
+      <c r="Z16" s="51">
         <v>47</v>
       </c>
-      <c r="AA16" s="55">
+      <c r="AA16" s="51">
         <v>38</v>
       </c>
-      <c r="AB16" s="55">
+      <c r="AB16" s="51">
         <v>36</v>
       </c>
-      <c r="AC16" s="55">
+      <c r="AC16" s="51">
         <v>37</v>
       </c>
-      <c r="AD16" s="55">
+      <c r="AD16" s="51">
         <v>36</v>
       </c>
     </row>

--- a/data/COVID-19 data sheet edited Jan 23.xlsx
+++ b/data/COVID-19 data sheet edited Jan 23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alechay/r_projects/GitHub/covid19-mh/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA07580E-8E60-264B-8FAB-4D1496BF049D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDD0571-0D58-8E41-9C81-9AA9B2CE27D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="800" windowWidth="32580" windowHeight="16740" tabRatio="603" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1100" windowWidth="32580" windowHeight="16740" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grand River Hospital" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -734,9 +734,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -762,6 +759,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -981,9 +984,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD1001"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5:A31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -998,46 +1001,46 @@
   <sheetData>
     <row r="1" spans="1:41" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="56"/>
-      <c r="AN1" s="56"/>
-      <c r="AO1" s="56"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
+      <c r="AO1" s="65"/>
     </row>
     <row r="2" spans="1:41" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1192,7 +1195,7 @@
       <c r="I3" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="68" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="30" t="s">
@@ -18959,8 +18962,8 @@
   <dimension ref="A1:BC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:AO31"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18970,60 +18973,60 @@
   <sheetData>
     <row r="1" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="57"/>
-      <c r="AQ1" s="57"/>
-      <c r="AR1" s="57"/>
-      <c r="AS1" s="57"/>
-      <c r="AT1" s="57"/>
-      <c r="AU1" s="57"/>
-      <c r="AV1" s="57"/>
-      <c r="AW1" s="57"/>
-      <c r="AX1" s="57"/>
-      <c r="AY1" s="57"/>
-      <c r="AZ1" s="57"/>
-      <c r="BA1" s="57"/>
-      <c r="BB1" s="57"/>
-      <c r="BC1" s="58"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="67"/>
     </row>
     <row r="2" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -27837,8 +27840,8 @@
   <dimension ref="A1:AO1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:AO31"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27848,46 +27851,46 @@
   <sheetData>
     <row r="1" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="57"/>
-      <c r="AI1" s="57"/>
-      <c r="AJ1" s="57"/>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
     </row>
     <row r="2" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -28289,10 +28292,12 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>0</v>
+        <f>L5 + N5 + P5 + R5 + T5 + V5 + X5 + Z5 + AB5</f>
+        <v>3</v>
       </c>
       <c r="K5" s="4">
-        <v>3</v>
+        <f>M5+O5+Q5+S5+U5+W5+Y5+AA5+AC5</f>
+        <v>12</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -28410,10 +28415,12 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>1</v>
+        <f t="shared" ref="J6:J31" si="0">L6 + N6 + P6 + R6 + T6 + V6 + X6 + Z6 + AB6</f>
+        <v>16</v>
       </c>
       <c r="K6" s="4">
-        <v>3</v>
+        <f t="shared" ref="K6:K31" si="1">M6+O6+Q6+S6+U6+W6+Y6+AA6+AC6</f>
+        <v>16</v>
       </c>
       <c r="L6" s="4">
         <v>8</v>
@@ -28531,10 +28538,12 @@
         <v>0</v>
       </c>
       <c r="J7" s="4">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="K7" s="4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="L7" s="4">
         <v>4</v>
@@ -28652,10 +28661,12 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="K8" s="4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="L8" s="4">
         <v>5</v>
@@ -28773,10 +28784,12 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="K9" s="4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="L9" s="4">
         <v>7</v>
@@ -28894,10 +28907,12 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>19</v>
       </c>
       <c r="K10" s="4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="L10" s="4">
         <v>8</v>
@@ -29015,10 +29030,12 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="K11" s="4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="L11" s="4">
         <v>4</v>
@@ -29136,10 +29153,12 @@
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="K12" s="4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="L12" s="4">
         <v>6</v>
@@ -29257,10 +29276,12 @@
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="L13" s="4">
         <v>5</v>
@@ -29378,10 +29399,12 @@
         <v>0</v>
       </c>
       <c r="J14" s="4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="K14" s="4">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="L14" s="4">
         <v>6</v>
@@ -29499,10 +29522,12 @@
         <v>0</v>
       </c>
       <c r="J15" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="K15" s="4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="L15" s="4">
         <v>4</v>
@@ -29620,10 +29645,12 @@
         <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="K16" s="4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="L16" s="4">
         <v>9</v>
@@ -29741,10 +29768,12 @@
         <v>0</v>
       </c>
       <c r="J17" s="4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="K17" s="4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="L17" s="4">
         <v>3</v>
@@ -29862,10 +29891,12 @@
         <v>0</v>
       </c>
       <c r="J18" s="4">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>21</v>
       </c>
       <c r="K18" s="4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="L18" s="4">
         <v>7</v>
@@ -29983,10 +30014,12 @@
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="K19" s="4">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
       <c r="L19" s="4">
         <v>7</v>
@@ -30104,10 +30137,12 @@
         <v>0</v>
       </c>
       <c r="J20" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="K20" s="4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="L20" s="4">
         <v>6</v>
@@ -30225,10 +30260,12 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="K21" s="4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
       <c r="L21" s="4">
         <v>7</v>
@@ -30346,10 +30383,12 @@
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="K22" s="4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="L22" s="4">
         <v>2</v>
@@ -30467,10 +30506,12 @@
         <v>0</v>
       </c>
       <c r="J23" s="4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="K23" s="4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="L23" s="4">
         <v>3</v>
@@ -30588,10 +30629,12 @@
         <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="K24" s="4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="L24" s="4">
         <v>2</v>
@@ -30709,10 +30752,12 @@
         <v>0</v>
       </c>
       <c r="J25" s="4">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="K25" s="4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>9</v>
       </c>
       <c r="L25" s="4">
         <v>6</v>
@@ -30830,10 +30875,12 @@
         <v>0</v>
       </c>
       <c r="J26" s="4">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="K26" s="4">
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="L26" s="4">
         <v>8</v>
@@ -30951,10 +30998,12 @@
         <v>0</v>
       </c>
       <c r="J27" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="K27" s="4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="L27" s="4">
         <v>12</v>
@@ -31072,10 +31121,12 @@
         <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="K28" s="4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="L28" s="4">
         <v>5</v>
@@ -31193,10 +31244,12 @@
         <v>0</v>
       </c>
       <c r="J29" s="4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="K29" s="4">
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="L29" s="4">
         <v>4</v>
@@ -31314,10 +31367,12 @@
         <v>0</v>
       </c>
       <c r="J30" s="4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="K30" s="4">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="L30" s="4">
         <v>7</v>
@@ -31435,10 +31490,12 @@
         <v>0</v>
       </c>
       <c r="J31" s="4">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="K31" s="4">
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="L31" s="4">
         <v>7</v>
@@ -36370,49 +36427,49 @@
       <c r="A1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="63" t="s">
+      <c r="B1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="63" t="s">
+      <c r="I1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="63" t="s">
+      <c r="J1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="63" t="s">
+      <c r="K1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="63" t="s">
+      <c r="L1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="63" t="s">
+      <c r="M1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="N1" s="63" t="s">
+      <c r="N1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="63" t="s">
+      <c r="P1" s="60" t="s">
         <v>68</v>
       </c>
     </row>
@@ -36420,49 +36477,49 @@
       <c r="A2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="K2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="60" t="s">
+      <c r="O2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="60" t="s">
+      <c r="P2" s="57" t="s">
         <v>11</v>
       </c>
     </row>
@@ -37630,7 +37687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C962A83-DC3B-4442-9350-FC7590FB14F3}">
   <dimension ref="A1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -37729,10 +37786,10 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="64" t="s">
+      <c r="A2" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="61" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3">
@@ -37821,10 +37878,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="64" t="s">
+      <c r="A3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4">
@@ -37913,10 +37970,10 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="4"/>
@@ -37949,10 +38006,10 @@
       <c r="AD4" s="4"/>
     </row>
     <row r="5" spans="1:30" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="65" t="s">
+      <c r="A5" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="4"/>
@@ -37985,10 +38042,10 @@
       <c r="AD5" s="4"/>
     </row>
     <row r="6" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4"/>
@@ -38021,10 +38078,10 @@
       <c r="AD6" s="4"/>
     </row>
     <row r="7" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="63" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3">
@@ -38114,10 +38171,10 @@
       </c>
     </row>
     <row r="8" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="63" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4">
@@ -38206,10 +38263,10 @@
       </c>
     </row>
     <row r="9" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="64" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="3">
@@ -38300,10 +38357,10 @@
       </c>
     </row>
     <row r="10" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="64" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4">
@@ -38392,10 +38449,10 @@
       </c>
     </row>
     <row r="11" spans="1:30" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C11" s="3">
@@ -38441,10 +38498,10 @@
       <c r="AD11" s="4"/>
     </row>
     <row r="12" spans="1:30" ht="272" x14ac:dyDescent="0.2">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="4">
@@ -38491,10 +38548,10 @@
       <c r="AD12" s="4"/>
     </row>
     <row r="13" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="56" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="3">
@@ -38584,10 +38641,10 @@
       </c>
     </row>
     <row r="14" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="56" t="s">
         <v>69</v>
       </c>
       <c r="C14" s="4">
@@ -38676,10 +38733,10 @@
       </c>
     </row>
     <row r="15" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="3">
@@ -38772,10 +38829,10 @@
       </c>
     </row>
     <row r="16" spans="1:30" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="57" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="4">

--- a/data/COVID-19 data sheet edited Jan 23.xlsx
+++ b/data/COVID-19 data sheet edited Jan 23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alechay/r_projects/GitHub/covid19-mh/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDD0571-0D58-8E41-9C81-9AA9B2CE27D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988FB733-8DC5-404E-9AEC-4A36971DB1E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1100" windowWidth="32580" windowHeight="16740" tabRatio="603" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1100" windowWidth="32580" windowHeight="16740" tabRatio="603" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grand River Hospital" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="92">
   <si>
     <t>Here 24/7 data</t>
   </si>
@@ -274,6 +274,48 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Mar 15 - Mar 21</t>
+  </si>
+  <si>
+    <t>Mar 1 - Mar 7</t>
+  </si>
+  <si>
+    <t>Mar 8 - Mar 14</t>
+  </si>
+  <si>
+    <t>Apr 26 - May 2</t>
+  </si>
+  <si>
+    <t>July 26 -  Aug 1</t>
+  </si>
+  <si>
+    <t>July 19 - July 25</t>
+  </si>
+  <si>
+    <t>Aug 2 - Aug 8</t>
+  </si>
+  <si>
+    <t>Aug 9 - Aug 15</t>
+  </si>
+  <si>
+    <t>Aug 16 - Aug 22</t>
+  </si>
+  <si>
+    <t>Aug 23 - Aug 29</t>
+  </si>
+  <si>
+    <t>Aug 30 - Sep 5</t>
+  </si>
+  <si>
+    <t>Apr 5 - Apr 11</t>
+  </si>
+  <si>
+    <t>Apr 12 - Apr 18</t>
+  </si>
+  <si>
+    <t>Apr 19 - Apr 25</t>
   </si>
 </sst>
 </file>
@@ -761,12 +803,12 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,9 +1026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K15" sqref="K15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1001,46 +1043,46 @@
   <sheetData>
     <row r="1" spans="1:41" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
     </row>
     <row r="2" spans="1:41" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1195,7 +1237,7 @@
       <c r="I3" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="65" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="30" t="s">
@@ -15147,13 +15189,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88B97BF2-345E-1C49-B8DF-64454A386D0C}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="65" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -15164,13 +15206,13 @@
         <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>33</v>
@@ -15179,16 +15221,16 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>24</v>
@@ -15224,25 +15266,25 @@
         <v>35</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -18973,60 +19015,60 @@
   <sheetData>
     <row r="1" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="66"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="67"/>
+      <c r="AW1" s="67"/>
+      <c r="AX1" s="67"/>
+      <c r="AY1" s="67"/>
+      <c r="AZ1" s="67"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="68"/>
     </row>
     <row r="2" spans="1:55" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -24214,13 +24256,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873A3F92-538B-4145-B70F-E5D73031C7A4}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AD41"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -24231,13 +24273,13 @@
         <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>33</v>
@@ -24246,16 +24288,16 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>24</v>
@@ -24291,25 +24333,25 @@
         <v>35</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
@@ -27851,46 +27893,46 @@
   <sheetData>
     <row r="1" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
+      <c r="AO1" s="67"/>
     </row>
     <row r="2" spans="1:41" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -32738,13 +32780,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A10307E-8438-AE4C-95EE-D114722CC45A}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
@@ -32755,13 +32797,13 @@
         <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>33</v>
@@ -32770,16 +32812,16 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>24</v>
@@ -32815,25 +32857,25 @@
         <v>35</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
@@ -37688,12 +37730,12 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:30" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -37704,13 +37746,13 @@
         <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>33</v>
@@ -37719,16 +37761,16 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>24</v>
@@ -37764,25 +37806,25 @@
         <v>35</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AC1" s="4" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="AD1" s="4" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="32" x14ac:dyDescent="0.2">
